--- a/src/make_cv/files/Service/professional development data.xlsx
+++ b/src/make_cv/files/Service/professional development data.xlsx
@@ -1,119 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhelenbr/Codes/make_cv/src/make_cv/files/Service/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A76047F-7482-2649-B370-D8D062F85928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="21720" yWindow="8400" windowWidth="26700" windowHeight="17260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11700" yWindow="2620" windowWidth="26700" windowHeight="17260" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Notes" sheetId="4" r:id="rId1"/>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Notes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$F$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data'!$A$1:$F$79</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Teaching</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Professional</t>
-  </si>
-  <si>
-    <t>Research</t>
-  </si>
-  <si>
-    <t>Calendar Year</t>
-  </si>
-  <si>
-    <t>Some Notes</t>
-  </si>
-  <si>
-    <t>Make an entry for every activity by year</t>
-  </si>
-  <si>
-    <t>Types</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Fall</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>Terms</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -132,22 +57,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -447,68 +431,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Some Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Make an entry for every activity by year</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Types</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Teaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Professional</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Terms</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Fall</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Summer</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Winter</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -517,80 +527,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" customWidth="1"/>
+    <col width="36.33203125" customWidth="1" min="1" max="1"/>
+    <col width="14.33203125" customWidth="1" min="2" max="3"/>
+    <col width="12.83203125" customWidth="1" min="4" max="4"/>
+    <col width="7.1640625" customWidth="1" min="5" max="5"/>
+    <col width="31.1640625" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Calendar Year</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="17" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:F79" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A63:F79">
+  <autoFilter ref="A1:F79">
+    <sortState ref="A63:F79">
       <sortCondition ref="D1:D79"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F64">
-    <sortCondition descending="1" ref="A2:A64"/>
-  </sortState>
-  <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{DE07A771-8A3B-0042-AFC5-86E352607CC5}">
+  <dataValidations count="4">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>Notes!$A$5:$A$7</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>Notes!$A$10:$A$13</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="whole" operator="between">
       <formula1>1900</formula1>
       <formula2>2100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{9EB04847-E00A-5A4F-80CA-E5A0CEB6F4CB}">
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="decimal" operator="greaterThan">
       <formula1>0</formula1>
-      <formula2>100000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E6A682B5-26A7-0F42-8171-51F6D9CD3E3F}">
-          <x14:formula1>
-            <xm:f>Notes!$A$5:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{43EF661B-5B40-E54F-868B-2B126D36FDFC}">
-          <x14:formula1>
-            <xm:f>Notes!$A$10:$A$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>